--- a/data/trans_dic/P33B_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P33B_R2-Provincia-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07756801304326232</v>
+        <v>0.0779461347373888</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1072265010764828</v>
+        <v>0.1057277793589463</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1010069095446158</v>
+        <v>0.1013596003671812</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1416294844146883</v>
+        <v>0.1387487222798823</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.161880132739542</v>
+        <v>0.1637907168020627</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1438209298510709</v>
+        <v>0.1438994132486065</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.067757137316586</v>
+        <v>0.07100943853184459</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.123839155440279</v>
+        <v>0.1253269580963597</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1049300765950282</v>
+        <v>0.1048684205320519</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1331683984925406</v>
+        <v>0.1358549324368891</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1777312138187209</v>
+        <v>0.177095185244911</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1448532438793796</v>
+        <v>0.1444634428460076</v>
       </c>
     </row>
     <row r="10">
@@ -677,7 +677,7 @@
         <v>0.1332108943498033</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.2286912768032422</v>
+        <v>0.2286912768032421</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.1837827236889363</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.102595204766371</v>
+        <v>0.09949737365307869</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1882696072690206</v>
+        <v>0.1949794496710441</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1608666388374854</v>
+        <v>0.1575482675360836</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1750739635147977</v>
+        <v>0.1724205137838846</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.267334291799255</v>
+        <v>0.2673951534107969</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2102673650114639</v>
+        <v>0.2078886121984573</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.1588737345093685</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.2064660997883507</v>
+        <v>0.2064660997883508</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.1841309020212696</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1139652562576443</v>
+        <v>0.1166613856831799</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1717595402143157</v>
+        <v>0.1735173361106322</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1586417836656549</v>
+        <v>0.1584751262608714</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2082424089193486</v>
+        <v>0.2074518327941326</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2478832621942626</v>
+        <v>0.2489362040882664</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2152909625350395</v>
+        <v>0.2143622806954097</v>
       </c>
     </row>
     <row r="16">
@@ -787,7 +787,7 @@
         <v>0.07424515960066694</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.1078994126575796</v>
+        <v>0.1078994126575795</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.0918955192831717</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05002540547545199</v>
+        <v>0.05089845036588179</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.08276059572047802</v>
+        <v>0.08571956917984562</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.07316213488238378</v>
+        <v>0.07416806970490221</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1078343201947096</v>
+        <v>0.1087846503477938</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1343491689370917</v>
+        <v>0.1375838993120357</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1110196483406957</v>
+        <v>0.1133375265632914</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0.1508159396327205</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.2774241564923285</v>
+        <v>0.2774241564923284</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.2132960591031176</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1136467689303378</v>
+        <v>0.1189988998491991</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2366546990614816</v>
+        <v>0.2359887979208795</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1846018541129989</v>
+        <v>0.1858669941160647</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1893035144197108</v>
+        <v>0.1940956522079802</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3195452008305449</v>
+        <v>0.3196573569613865</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2403056209835433</v>
+        <v>0.2448427239648994</v>
       </c>
     </row>
     <row r="22">
@@ -900,7 +900,7 @@
         <v>0.2575086250253085</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.194295872036217</v>
+        <v>0.1942958720362171</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1018910319975962</v>
+        <v>0.1039003610347548</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2300054535383448</v>
+        <v>0.2300027835465459</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.173896188719061</v>
+        <v>0.1763300125584647</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1550840668275703</v>
+        <v>0.1525256831666351</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.287866357455525</v>
+        <v>0.2846800216958181</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2134880797850821</v>
+        <v>0.2148709499334442</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1726841530993204</v>
+        <v>0.1729855186972545</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2779513734023218</v>
+        <v>0.2761523978142629</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.233236987932451</v>
+        <v>0.2328110328823026</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2299618959818098</v>
+        <v>0.226989035985923</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.330811502688416</v>
+        <v>0.3320373037363158</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2725805665211246</v>
+        <v>0.2721406617712268</v>
       </c>
     </row>
     <row r="28">
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.1395145783794931</v>
+        <v>0.1395145783794932</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>0.2250572738734859</v>
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1264628204025781</v>
+        <v>0.1276458299625879</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2125207898458497</v>
+        <v>0.2136995181431914</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1752599188339788</v>
+        <v>0.1749398094854767</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1507044689306758</v>
+        <v>0.1520134799894528</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2373134403303522</v>
+        <v>0.2375936722889594</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1919989841505105</v>
+        <v>0.1921440330845332</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>24732</v>
+        <v>24853</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>33890</v>
+        <v>33416</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>64130</v>
+        <v>64354</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>45158</v>
+        <v>44239</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>51164</v>
+        <v>51768</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>91313</v>
+        <v>91363</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>35955</v>
+        <v>37681</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>67677</v>
+        <v>68490</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>113024</v>
+        <v>112958</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>70665</v>
+        <v>72091</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>97129</v>
+        <v>96781</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>156027</v>
+        <v>155607</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>32419</v>
+        <v>31440</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>66994</v>
+        <v>69382</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>108076</v>
+        <v>105847</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>55322</v>
+        <v>54484</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>95129</v>
+        <v>95150</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>141265</v>
+        <v>139667</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>42526</v>
+        <v>43532</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>72476</v>
+        <v>73218</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>126137</v>
+        <v>126005</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>77705</v>
+        <v>77410</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>104597</v>
+        <v>105041</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>171179</v>
+        <v>170441</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>10288</v>
+        <v>10468</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>18772</v>
+        <v>19443</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>31642</v>
+        <v>32077</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>22178</v>
+        <v>22373</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>30473</v>
+        <v>31207</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>48015</v>
+        <v>49017</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>30765</v>
+        <v>32214</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>62418</v>
+        <v>62242</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>98662</v>
+        <v>99338</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>51246</v>
+        <v>52543</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>84280</v>
+        <v>84310</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>128433</v>
+        <v>130858</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>73219</v>
+        <v>74663</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>177577</v>
+        <v>177575</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>259220</v>
+        <v>262848</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>111444</v>
+        <v>109606</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>222249</v>
+        <v>219789</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>318239</v>
+        <v>320300</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>137814</v>
+        <v>138055</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>230869</v>
+        <v>229375</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>379869</v>
+        <v>379175</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>183526</v>
+        <v>181154</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>274775</v>
+        <v>275793</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>443947</v>
+        <v>443230</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>446626</v>
+        <v>450804</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>793467</v>
+        <v>797868</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1273312</v>
+        <v>1270987</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>532240</v>
+        <v>536863</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>886033</v>
+        <v>887079</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1394926</v>
+        <v>1395980</v>
       </c>
     </row>
     <row r="40">
